--- a/src/main/resources/testData/results.xlsx
+++ b/src/main/resources/testData/results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivek\Testing\RGPV AUTOMATION\RgpvAutomation\src\main\resources\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vivek\Testing\ResultXtractor\ResultXtractor\src\main\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9497BB9-DD87-4DA9-B48B-5E2DD7C59DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CEF313-0DE5-4674-BCC0-CF925F530472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -44,6 +44,12 @@
       <b/>
       <sz val="12"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -69,11 +75,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -394,23 +397,24 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>